--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf11.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf11.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág. 35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nenhum Estado pode reivindicar ou exercer soberania sobre qualquer parte da Área ou seus recursos, sendo estes patrimônio comum da humanidade.</t>
+          <t>Para efeitos da Parte XI, os recursos, uma vez extraídos da Área, são denominados "minerais".</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Os Estados que descobrirem recursos na Área têm direito de reivindicar soberania sobre o local da descoberta, desde que notifiquem a Autoridade.</t>
+          <t>Para efeitos da Parte XI, o termo "recursos" refere-se aos minerais já extraídos e processados fora da Área.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O Artigo 137 proíbe expressamente a reivindicação ou exercício de soberania sobre a Área ou seus recursos.</t>
+          <t>Conforme o **art. 133, alínea 'b'**, os recursos, uma vez extraídos da Área, são denominados ‘minerais’.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -517,27 +517,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág. 35</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Os recursos da Área, uma vez extraídos, são denominados "minerais".</t>
+          <t>Nenhuma disposição do artigo 134 afeta o estabelecimento dos limites exteriores da plataforma continental ou a validade de acordos de delimitação entre Estados.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O termo "recursos" refere-se exclusivamente aos minerais já extraídos e processados, enquanto os depósitos in situ são chamados de "reservas".</t>
+          <t>O estabelecimento dos limites da Área determina automaticamente os limites exteriores da plataforma continental dos Estados costeiros.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O Artigo 133 define "recursos" como os minerais in situ e "minerais" como os recursos extraídos.</t>
+          <t>Segundo o **art. 134, parágrafo 4º**, nenhuma disposição afeta o estabelecimento dos limites da plataforma continental nem a validade dos acordos de delimitação.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -551,27 +551,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág. 35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Os danos causados pelo não cumprimento das obrigações na Área implicam responsabilidade dos Estados Partes ou organizações internacionais.</t>
+          <t>O termo "recursos" abrange todos os recursos minerais sólidos, líquidos ou gasosos in situ na Área, no leito do mar ou no seu subsolo.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Os Estados Partes nunca são responsáveis por danos causados por empresas que patrocinam, mesmo que não tenham tomado medidas para assegurar o cumprimento das regras.</t>
+          <t>O termo "recursos" exclui expressamente os nódulos polimetálicos e recursos gasosos in situ.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Artigo 139 estabelece a responsabilidade por danos, salvo se o Estado tomou todas as medidas necessárias para assegurar o cumprimento.</t>
+          <t>De acordo com a definição do **art. 133, alínea 'a'**, recursos significa todos os recursos minerais in situ, incluindo nódulos polimetálicos.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -585,27 +585,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág. 36</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A Área está aberta à utilização exclusivamente para fins pacíficos por todos os Estados, costeiros ou sem litoral, sem discriminação.</t>
+          <t>A Área e seus recursos são patrimônio comum da humanidade.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Área pode ser utilizada para testes de armas nucleares, desde que realizados em zonas desabitadas e longe de rotas de navegação.</t>
+          <t>A Área e seus recursos pertencem aos Estados costeiros mais próximos, sob o princípio da extensão da soberania.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O Artigo 141 restringe a utilização da Área exclusivamente para fins pacíficos.</t>
+          <t>Conforme textualmente disposto no **art. 136**, a Área e seus recursos são patrimônio comum da humanidade.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -619,27 +619,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág. 36</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>As atividades na Área devem ser realizadas em benefício da humanidade em geral, tendo em conta os interesses dos Estados em desenvolvimento.</t>
+          <t>Nenhum Estado pode reivindicar ou exercer soberania sobre qualquer parte da Área ou seus recursos.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>As atividades na Área visam primeiramente o lucro das empresas contratantes, sendo secundário o benefício da humanidade ou os interesses dos países em desenvolvimento.</t>
+          <t>Estados podem exercer soberania sobre partes da Área caso demonstrem ocupação histórica efetiva.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Artigo 140 determina que as atividades devem beneficiar a humanidade em geral.</t>
+          <t>Segundo o **art. 137, parágrafo 1º**, nenhum Estado pode reivindicar ou exercer soberania ou direitos de soberania sobre qualquer parte da Área.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -653,27 +653,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág. 36</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A investigação científica marinha na Área deve ser realizada exclusivamente com fins pacíficos e em benefício da humanidade em geral.</t>
+          <t>As atividades na Área devem ser realizadas em benefício da humanidade em geral, independentemente da situação geográfica dos Estados.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A investigação científica na Área é restrita à Autoridade Internacional, sendo vedada a realização de pesquisas por Estados Partes individualmente.</t>
+          <t>As atividades na Área visam prioritariamente o benefício dos Estados que possuem tecnologia para exploração, em detrimento dos demais.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O Artigo 143 permite que Estados Partes realizem investigação, desde que para fins pacíficos e benefício da humanidade.</t>
+          <t>De acordo com o **art. 140, parágrafo 1º**, as atividades devem ser realizadas em benefício da humanidade em geral, independentemente da situação geográfica.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -687,12 +687,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 37</t>
+          <t>Pág. 37</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -702,12 +702,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A transferência de tecnologia para os Estados em desenvolvimento é estritamente proibida para proteger os segredos industriais das empresas mineradoras.</t>
+          <t>A transferência de tecnologia relativa à Área é vedada para proteger a propriedade intelectual das empresas pioneiras.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O Artigo 144 obriga a Autoridade a promover a transferência de tecnologia.</t>
+          <t>Conforme o **art. 144, parágrafo 1º, alínea 'b'**, a Autoridade deve promover e incentivar a transferência de tal tecnologia para os Estados em desenvolvimento.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -721,27 +721,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 37</t>
+          <t>Pág. 37</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Devem ser tomadas medidas necessárias para assegurar a proteção eficaz do meio marinho contra efeitos nocivos de atividades na Área.</t>
+          <t>A Autoridade adotará normas para assegurar a proteção eficaz do meio marinho contra efeitos nocivos resultantes de atividades na Área.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A proteção do meio marinho é opcional na Área, devendo prevalecer o interesse econômico da extração mineral sobre preocupações ecológicas.</t>
+          <t>A proteção do meio marinho na Área é de responsabilidade exclusiva dos Estados patrocinadores, sem interferência normativa da Autoridade.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O Artigo 145 exige medidas necessárias para a proteção eficaz do meio marinho.</t>
+          <t>Segundo o **art. 145**, a Autoridade adotará normas, regulamentos e procedimentos apropriados para assegurar a proteção eficaz do meio marinho.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -755,27 +755,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 37</t>
+          <t>Pág. 37</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A Autoridade deve adotar normas para prevenir, reduzir e controlar a poluição e outros perigos para o meio marinho decorrentes da mineração.</t>
+          <t>As instalações utilizadas para atividades na Área não possuem estatuto jurídico de ilhas e não têm mar territorial próprio.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cabe exclusivamente aos Estados patrocinadores, e não à Autoridade, criar normas ambientais para as atividades na Área.</t>
+          <t>As instalações fixas na Área adquirem estatuto de ilhas artificiais, gerando mar territorial e zona econômica exclusiva ao seu redor.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O Artigo 145 atribui à Autoridade a competência para adotar normas de proteção ambiental.</t>
+          <t>De acordo com o **art. 147, parágrafo 2º, alínea 'e'**, tais instalações não têm o estatuto jurídico de ilhas e não têm mar territorial próprio.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -789,27 +789,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág. 38</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>As instalações utilizadas para atividades na Área não têm o estatuto jurídico de ilhas e não possuem mar territorial próprio.</t>
+          <t>Todos os objetos de caráter arqueológico e histórico achados na Área serão conservados ou dispostos em benefício da humanidade em geral.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>As ilhas artificiais construídas na Área geram mar territorial e zona econômica exclusiva em favor do Estado que as construiu.</t>
+          <t>Objetos arqueológicos achados na Área pertencem automaticamente à empresa ou Estado que os encontrar.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O Artigo 147 afirma que tais instalações não têm estatuto de ilhas nem mar territorial.</t>
+          <t>Conforme o **art. 149**, todos os objetos arqueológicos achados na Área serão conservados em benefício da humanidade em geral.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -823,27 +823,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág. 38</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Objetos arqueológicos achados na Área serão conservados em benefício da humanidade, tendo em conta os direitos do Estado de origem.</t>
+          <t>As atividades na Área devem fomentar o desenvolvimento harmonioso da economia mundial e o crescimento equilibrado do comércio internacional.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Objetos arqueológicos encontrados na Área tornam-se propriedade privada da empresa que os encontrou, podendo ser vendidos livremente.</t>
+          <t>As atividades na Área devem focar exclusivamente no lucro da Autoridade, independentemente dos efeitos no comércio internacional.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>O Artigo 149 estabelece a conservação em benefício da humanidade e respeito ao Estado de origem.</t>
+          <t>Segundo o **art. 150**, as atividades devem fomentar o desenvolvimento harmonioso da economia mundial e o crescimento equilibrado do comércio.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -857,27 +857,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág. 38</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>As atividades na Área devem ser realizadas de modo a evitar a monopolização das atividades e promover o desenvolvimento harmonioso da economia mundial.</t>
+          <t>A participação efetiva dos Estados em desenvolvimento nas atividades na Área deve ser promovida, tendo em conta seus interesses e necessidades especiais.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>É permitido o monopólio das atividades na Área por um pequeno grupo de Estados tecnologicamente avançados para garantir a eficiência econômica.</t>
+          <t>A participação na Área é restrita aos Estados com capacidade financeira imediata, sem políticas de promoção para países em desenvolvimento.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O Artigo 150 lista a prevenção da monopolização como um dos objetivos das políticas gerais.</t>
+          <t>O **art. 148** estabelece que a participação efetiva dos Estados em desenvolvimento deve ser promovida tendo em conta seus interesses especiais.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -891,27 +891,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág. 39</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A produção comercial não deve ser empreendida sem uma autorização de produção emitida pela Autoridade.</t>
+          <t>O período provisório referido nas políticas de produção durará 25 anos ou até o fim da Conferência de revisão, prevalecendo o prazo mais curto.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Uma vez aprovado o plano de trabalho, o operador pode iniciar a produção comercial imediatamente, sem necessidade de autorização específica de produção.</t>
+          <t>O período provisório para políticas de produção é indefinido, durando até que a Autoridade decida encerrá-lo.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>O Artigo 151 exige a obtenção de uma autorização de produção antes do início da atividade comercial.</t>
+          <t>Conforme o **art. 151, parágrafo 3º**, o período provisório deve durar 25 anos ou até ao fim da Conferência de revisão, prevalecendo o prazo mais curto.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -925,27 +925,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág. 39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A Autoridade tem o direito de participar em qualquer conferência sobre produtos básicos (commodities) que inclua produtores e consumidores.</t>
+          <t>A Autoridade tem o direito de participar em qualquer conferência sobre produtos básicos na qual participem produtores e consumidores.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A Autoridade é proibida de participar de conferências internacionais sobre commodities para não interferir no livre mercado.</t>
+          <t>A Autoridade está proibida de participar de conferências sobre produtos básicos para manter sua neutralidade política.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>O Artigo 151, parágrafo 1º, garante o direito de participação da Autoridade.</t>
+          <t>De acordo com o **art. 151, parágrafo 1º, alínea 'b'**, a Autoridade tem o direito de participar em qualquer conferência sobre produtos básicos.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -959,27 +959,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág. 39</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>O período provisório (para cálculo de teto de produção) deve durar 25 anos ou até o fim da Conferência de Revisão, o que for mais curto.</t>
+          <t>A produção comercial não deve ser empreendida sem que o operador tenha obtido da Autoridade uma autorização de produção.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>O período provisório para controle de produção é indeterminado e dura enquanto houver recursos minerais na Área.</t>
+          <t>A produção comercial pode ser iniciada livremente pelo operador, bastando notificar a Autoridade posteriormente.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>O Artigo 151, parágrafo 3º, define a duração do período provisório.</t>
+          <t>Segundo o **art. 151, parágrafo 2º, alínea 'a'**, a produção comercial não deve ser empreendida (...) até que o operador tenha obtido uma autorização.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -993,27 +993,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág. 40</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A Autoridade deve reservar uma quantidade de 38 mil toneladas métricas de níquel para a produção inicial da Empresa.</t>
+          <t>O teto de produção de níquel é calculado com base nos valores da curva de tendência do consumo de níquel.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A Empresa deve competir livremente por quotas de produção de níquel, sem qualquer reserva garantida pela Autoridade.</t>
+          <t>O teto de produção de níquel é fixado arbitrariamente pela Assembleia, sem relação com curvas de tendência de consumo.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>O Artigo 151, parágrafo 5º, estipula a reserva de 38 mil toneladas para a Empresa.</t>
+          <t>Conforme o **art. 151, parágrafo 4º, alínea 'b', subalínea 'i'**, os valores da curva de tendência utilizados para calcular o teto devem ser os do consumo anual de níquel.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1027,27 +1027,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág. 40</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A Autoridade deve evitar qualquer discriminação no exercício de seus poderes, mas pode dar atenção especial aos países em desenvolvimento.</t>
+          <t>A Autoridade deve evitar qualquer discriminação no exercício de seus poderes, podendo, contudo, dispensar atenção especial aos países em desenvolvimento.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A Autoridade deve tratar todos os Estados de forma absolutamente igual, sendo proibida qualquer atenção especial a países em desenvolvimento.</t>
+          <t>A regra da não discriminação é absoluta, impedindo a Autoridade de dar qualquer tratamento diferenciado aos países em desenvolvimento.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>O Artigo 152 permite atenção especial aos países em desenvolvimento, apesar da regra de não discriminação.</t>
+          <t>De acordo com o **art. 152**, a Autoridade deve evitar discriminação, mas pode dispensar atenção especial aos países em desenvolvimento.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág. 40</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>As atividades na Área podem ser realizadas pela Empresa ou, em associação com a Autoridade, por Estados Partes e entidades patrocinadas.</t>
+          <t>A Autoridade tem poder para limitar o volume de produção de minerais da Área que não sejam provenientes de nódulos polimetálicos.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Apenas a Empresa (órgão da Autoridade) pode realizar atividades de mineração na Área, sendo vetada a participação de empresas estatais ou privadas.</t>
+          <t>A Autoridade só pode limitar a produção de nódulos polimetálicos, não tendo poder sobre outros minerais da Área.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>O Artigo 153 estabelece o sistema paralelo de exploração (Empresa e contratantes patrocinados).</t>
+          <t>Segundo o **art. 151, parágrafo 9º**, a Autoridade tem o poder de limitar o volume de produção de minerais (...) que não sejam os provenientes de nódulos polimetálicos.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1095,27 +1095,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág. 41</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Um contrato celebrado com a Autoridade deve garantir a titularidade do contraente e não deve ser modificado sem acordo, salvo violações graves.</t>
+          <t>As atividades na Área podem ser realizadas pela Empresa e, em associação com a Autoridade, por Estados Partes ou entidades patrocinadas.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A Autoridade pode cancelar contratos unilateralmente a qualquer momento sem justificativa, não havendo garantia de titularidade para o contratante.</t>
+          <t>As atividades na Área são de monopólio exclusivo da Empresa, sendo vedada a participação de Estados ou pessoas jurídicas.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>O Artigo 153, parágrafo 6º, exige segurança de titularidade (security of tenure).</t>
+          <t>Conforme o **art. 153, parágrafo 2º**, as atividades serão realizadas pela Empresa e, em associação com a Autoridade, por Estados Partes ou entidades patrocinadas.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1129,27 +1129,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág. 41</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A Autoridade tem o direito de inspecionar todas as instalações na Área utilizadas para atividades realizadas na mesma.</t>
+          <t>Um contrato aprovado garante a titularidade do contraente e não deve ser modificado ou rescindido senão de conformidade com as normas estabelecidas.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>As inspeções da Autoridade dependem de autorização prévia e expressa do Estado proprietário da instalação, não sendo um direito automático.</t>
+          <t>A Autoridade pode rescindir unilateralmente qualquer contrato a qualquer momento, sem necessidade de conformidade com regras prévias.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>O Artigo 153, parágrafo 5º, confere à Autoridade o direito de inspeção a todo momento.</t>
+          <t>Segundo o **art. 153, parágrafo 6º**, o contrato deve garantir a titularidade do contraente e não deve ser modificado (...) senão de conformidade com o Anexo III.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1163,27 +1163,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág. 41</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>A Conferência de Revisão será convocada 15 anos após o início da primeira produção comercial.</t>
+          <t>A Assembleia deve proceder a um exame geral do regime da Área de cinco em cinco anos.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A Conferência de Revisão ocorre anualmente a partir da entrada em vigor da Convenção.</t>
+          <t>O regime da Área é imutável e não está sujeito a exames periódicos pela Assembleia.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>O Artigo 155 estabelece o prazo de 15 anos após a primeira produção comercial.</t>
+          <t>O **art. 154** estabelece que, de cinco em cinco anos, a Assembleia deve proceder a um exame geral e sistemático.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1197,12 +1197,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág. 42</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A Conferência de Revisão tem poderes ilimitados, podendo inclusive abolir o conceito de patrimônio comum da humanidade.</t>
+          <t>A Conferência de Revisão tem plenos poderes para abolir o princípio do patrimônio comum da humanidade se houver maioria simples.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>O Artigo 155, parágrafo 2º, protege explicitamente o princípio do patrimônio comum.</t>
+          <t>De acordo com o **art. 155, parágrafo 2º**, a Conferência de Revisão deve assegurar a manutenção do princípio do patrimônio comum da humanidade.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1231,27 +1231,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág. 42</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Todos os Estados Partes são ipso-facto membros da Autoridade Internacional dos Fundos Marinhos.</t>
+          <t>Se não houver acordo após cinco anos de Conferência de Revisão, emendas podem ser adotadas por maioria de três quartos dos Estados Partes.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A adesão à Autoridade Internacional dos Fundos Marinhos é opcional para os Estados que ratificam a Convenção.</t>
+          <t>Emendas ao sistema de exploração só podem ser adotadas por consenso absoluto, independentemente da duração da Conferência de Revisão.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>O Artigo 156 determina que todos os Estados Partes são membros automáticos.</t>
+          <t>Conforme o **art. 155, parágrafo 4º**, se após cinco anos não houver acordo, a Conferência pode decidir por maioria de três quartos.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1265,27 +1265,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág. 42</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>A Autoridade baseia-se no princípio da igualdade soberana de todos os seus membros.</t>
+          <t>Todos os Estados Partes são ipso-facto membros da Autoridade Internacional dos Fundos Marinhos.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A estrutura da Autoridade baseia-se na hierarquia econômica, onde os votos têm pesos diferentes conforme a riqueza do país.</t>
+          <t>A adesão à Autoridade Internacional dos Fundos Marinhos requer um processo de ratificação separado da Convenção.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>O Artigo 157 afirma o princípio da igualdade soberana.</t>
+          <t>Segundo o **art. 156, parágrafo 2º**, todos os Estados Partes são ipso-facto membros da Autoridade.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1299,27 +1299,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pág 43</t>
+          <t>Pág. 43</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A Assembléia é composta por todos os membros da Autoridade, dispondo cada membro de um voto.</t>
+          <t>A Autoridade baseia-se no princípio da igualdade soberana de todos os seus membros.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A Assembléia é composta apenas pelos 36 membros eleitos para o Conselho, tendo os demais apenas status de observadores.</t>
+          <t>A Autoridade baseia-se no princípio do voto ponderado conforme a contribuição financeira de cada membro.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>O Artigo 159 define a composição universal da Assembléia.</t>
+          <t>O **art. 157, parágrafo 3º** define que a Autoridade baseia-se no princípio da igualdade soberana de todos os seus membros.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1333,27 +1333,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pág 43</t>
+          <t>Pág. 43</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>As decisões sobre questões de fundo na Assembléia serão tomadas por maioria de dois terços dos membros presentes e votantes.</t>
+          <t>São órgãos principais da Autoridade: uma Assembleia, um Conselho e um Secretariado.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>As decisões de fundo na Assembléia requerem apenas maioria simples dos presentes e votantes.</t>
+          <t>A Empresa é o único órgão principal da Autoridade, sendo a Assembleia um órgão meramente consultivo.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>O Artigo 159, parágrafo 8º, exige maioria de dois terços para questões de fundo.</t>
+          <t>Conforme o **art. 158, parágrafo 1º**, são criados, como órgãos principais, uma Assembleia, um Conselho e um Secretariado.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1367,27 +1367,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pág 43</t>
+          <t>Pág. 43</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>A Assembléia pode solicitar parecer à Câmara de Controvérsias sobre a legalidade de uma proposta antes de votá-la.</t>
+          <t>As decisões da Assembleia sobre questões de fundo são tomadas por maioria de dois terços dos membros presentes e votantes.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A Assembléia é o órgão supremo e suas decisões não podem ser questionadas juridicamente nem sujeitas a pareceres prévios.</t>
+          <t>Todas as decisões da Assembleia, inclusive as de procedimento, exigem maioria de dois terços.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>O Artigo 159, parágrafo 10º, prevê o pedido de parecer consultivo à Câmara.</t>
+          <t>De acordo com o **art. 159, parágrafo 8º**, decisões sobre questões de fundo serão tomadas por maioria de dois terços.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1401,27 +1401,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pág 44</t>
+          <t>Pág. 44</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A Assembléia é considerada o órgão supremo da Autoridade, tendo o poder de estabelecer a política geral.</t>
+          <t>A Assembleia é considerada o órgão supremo da Autoridade, perante o qual respondem os outros órgãos principais.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>O Conselho é o órgão supremo da Autoridade, cabendo à Assembléia apenas ratificar as decisões do Conselho.</t>
+          <t>O Conselho é o órgão supremo da Autoridade, tendo poder de veto sobre as decisões da Assembleia.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>O Artigo 160 define a Assembléia como o órgão supremo.</t>
+          <t>Segundo o **art. 160, parágrafo 1º**, a Assembleia é considerada o órgão supremo da Autoridade.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1435,27 +1435,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pág 44</t>
+          <t>Pág. 44</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Compete à Assembléia eleger os membros do Conselho e o Secretário Geral.</t>
+          <t>Compete à Assembleia eleger o Secretário Geral dentre os candidatos propostos pelo Conselho.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>O Secretário Geral e os membros do Conselho são nomeados diretamente pela ONU, sem votação na Assembléia.</t>
+          <t>A Assembleia elege o Secretário Geral livremente, sem necessidade de proposta do Conselho.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>O Artigo 160 lista os poderes de eleição da Assembléia.</t>
+          <t>Conforme o **art. 160, parágrafo 2º, alínea 'b'**, a Assembleia elege o Secretário Geral dentre os candidatos propostos pelo Conselho.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1469,27 +1469,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pág 44</t>
+          <t>Pág. 44</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A Assembléia deve estabelecer um sistema de compensação para Estados em desenvolvimento cujas economias sofram efeitos adversos da mineração na Área.</t>
+          <t>A Assembleia pode estabelecer um sistema de compensação para reajuste econômico por recomendação do Conselho.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A Autoridade não se responsabiliza por impactos econômicos nos países em desenvolvimento, cabendo ao mercado regular os preços.</t>
+          <t>A Assembleia não possui competência para estabelecer sistemas de compensação econômica.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>O Artigo 160, parágrafo 2º alínea 'l', prevê o sistema de compensação.</t>
+          <t>De acordo com o **art. 160, parágrafo 2º, alínea 'l'**, a Assembleia pode estabelecer, por recomendação do Conselho (...), um sistema de compensação.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1503,27 +1503,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pág 45</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>O Conselho é composto de 36 membros da Autoridade eleitos pela Assembléia segundo critérios específicos de representação.</t>
+          <t>O Conselho é composto de 36 membros da Autoridade eleitos pela Assembleia.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>O Conselho é composto por 15 membros permanentes que representam as maiores potências econômicas mundiais.</t>
+          <t>O Conselho é composto por todos os membros da Autoridade, funcionando em sessão permanente.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>O Artigo 161 define a composição de 36 membros e os critérios de eleição.</t>
+          <t>O **art. 161, parágrafo 1º** estabelece que o Conselho é composto de 36 membros eleitos pela Assembleia.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1537,27 +1537,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pág 45</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Certas decisões de fundo no Conselho exigem consenso, definido como a ausência de qualquer objeção formal.</t>
+          <t>Na eleição do Conselho, deve-se assegurar a representação de interesses especiais, como maiores consumidores e investidores.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Consenso no Conselho significa que a maioria dos membros votou a favor, mesmo que haja votos contrários.</t>
+          <t>A eleição do Conselho é baseada puramente em sorteio, sem considerar critérios de consumo ou investimento.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>O Artigo 161, parágrafo 8º alínea 'e', define consenso como ausência de objeção formal.</t>
+          <t>Conforme o **art. 161, parágrafo 1º, alíneas 'a' e 'b'**, a eleição considera maiores consumidores e investidores.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1571,27 +1571,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pág 45</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Os membros do Conselho são eleitos para mandatos de quatro anos, podendo ser reeleitos.</t>
+          <t>Decisões sobre certas questões de fundo no Conselho exigem consenso, definido como ausência de objeção formal.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Os membros do Conselho têm mandato vitalício para garantir a estabilidade das políticas de mineração.</t>
+          <t>No Conselho, o consenso é definido como o voto afirmativo de todos os 36 membros presentes.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>O Artigo 161, parágrafo 3º, estabelece o mandato de 4 anos.</t>
+          <t>Segundo o **art. 161, parágrafo 8º, alínea 'e'**, 'consenso' significa ausência de qualquer objeção formal.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1605,27 +1605,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pág 46</t>
+          <t>Pág. 46</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>O Conselho é o órgão executivo da Autoridade, supervisionando a aplicação das disposições da Parte XI.</t>
+          <t>O Conselho é o órgão executivo da Autoridade e tem poder de estabelecer políticas específicas.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>O Conselho é um órgão meramente consultivo, sem poder executivo ou fiscalizatório sobre as atividades.</t>
+          <t>O Conselho atua apenas como órgão consultivo da Assembleia, sem poderes executivos próprios.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>O Artigo 162 define o Conselho como órgão executivo.</t>
+          <t>Conforme o **art. 162, parágrafo 1º**, o Conselho é o órgão executivo da Autoridade.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1639,27 +1639,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pág 46</t>
+          <t>Pág. 46</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Se a Comissão Jurídica e Técnica recomendar a aprovação de um plano de trabalho, este será considerado aprovado pelo Conselho, salvo objeção escrita.</t>
+          <t>O Conselho deve aprovar os planos de trabalho após exame pela Comissão Jurídica e Técnica.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>O Conselho deve rejeitar automaticamente qualquer plano de trabalho, a menos que haja uma votação unânime para aprová-lo.</t>
+          <t>O Conselho pode aprovar planos de trabalho diretamente, dispensando a análise de qualquer comissão técnica.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>O Artigo 162, parágrafo 2º alínea 'j', cria uma presunção de aprovação para recomendações positivas da Comissão.</t>
+          <t>De acordo com o **art. 162, parágrafo 2º, alínea 'j'**, o Conselho aprovará os planos de trabalho (...) após exame pela Comissão Jurídica e Técnica.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1673,27 +1673,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pág 46</t>
+          <t>Pág. 46</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>O Conselho adotará e aplicará provisoriamente as normas e regulamentos da Autoridade até a aprovação pela Assembléia.</t>
+          <t>O Conselho adotará e aplicará provisoriamente normas e regulamentos até sua aprovação pela Assembleia.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>O Conselho não pode aplicar nenhuma norma antes que a Assembléia a tenha aprovado definitivamente em sessão ordinária.</t>
+          <t>As normas da Autoridade só entram em vigor após aprovação final da Assembleia, sendo vedada aplicação provisória pelo Conselho.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>O Artigo 162, parágrafo 2º alínea 'o', permite a aplicação provisória de normas pelo Conselho.</t>
+          <t>Segundo o **art. 162, parágrafo 2º, alínea 'o', subalínea 'ii'**, o Conselho adotará e aplicará provisoriamente (...) as normas (...) até à sua aprovação pela Assembleia.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1707,27 +1707,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pág 47</t>
+          <t>Pág. 47</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>O Conselho pode emitir ordens de emergência para suspender operações a fim de prevenir dano grave ao meio marinho.</t>
+          <t>O Conselho tem poder para emitir ordens de emergência, inclusive de suspensão de operações, para prevenir danos graves ao meio marinho.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>O Conselho não tem autoridade para interromper operações em andamento, devendo recorrer a tribunais internacionais para tal.</t>
+          <t>O Conselho não pode suspender operações em andamento, devendo recorrer ao Tribunal Internacional para tais medidas.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>O Artigo 162, parágrafo 2º alínea 'w', confere poder de emitir ordens de emergência.</t>
+          <t>Conforme o **art. 162, parágrafo 2º, alínea 'w'**, o Conselho emitirá ordens de emergência, inclusive ordens de suspensão (...) para prevenir danos graves.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1741,27 +1741,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pág 47</t>
+          <t>Pág. 47</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O Conselho deve estabelecer mecanismos para dirigir e supervisionar um corpo de inspetores que fiscalizarão as atividades na Área.</t>
+          <t>O Conselho fará a seleção entre os peticionários de autorizações de produção quando tal seleção for exigida.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A fiscalização das atividades na Área é de responsabilidade exclusiva das próprias empresas contratantes (autofiscalização).</t>
+          <t>A seleção de peticionários de produção é feita por sorteio realizado pelo Secretário Geral, sem interferência do Conselho.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>O Artigo 162, parágrafo 2º alínea 'z', prevê o corpo de inspetores sob supervisão do Conselho.</t>
+          <t>De acordo com o **art. 162, parágrafo 2º, alínea 'q'**, o Conselho fará a seleção entre os peticionários de autorizações de produção.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1775,27 +1775,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pág 47</t>
+          <t>Pág. 47</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>O Conselho apresentará à Assembléia o projeto de orçamento anual da Autoridade para aprovação.</t>
+          <t>O Conselho deve supervisionar um corpo de inspetores para fiscalizar as atividades na Área.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A Assembléia não tem competência sobre o orçamento, que é decidido e aprovado internamente pelo Conselho.</t>
+          <t>A fiscalização na Área é voluntária e realizada pelas próprias empresas contratantes, sem inspetores da Autoridade.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>O Artigo 162, parágrafo 2º alínea 'r', estabelece que o Conselho apresenta o orçamento à Assembléia.</t>
+          <t>Segundo o **art. 162, parágrafo 2º, alínea 'z'**, o Conselho estabelecerá mecanismos para dirigir e supervisionar um corpo de inspetores.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1809,27 +1809,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pág 48</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>São órgãos do Conselho a Comissão Jurídica e Técnica e a Comissão de Planejamento Econômico.</t>
+          <t>São criados como órgãos do Conselho: uma Comissão Jurídica e Técnica e uma Comissão de Planejamento Econômico.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>O Conselho não possui órgãos subsidiários, devendo realizar todas as análises técnicas por meio de seus próprios membros.</t>
+          <t>A Comissão Jurídica e Técnica é um órgão independente, não subordinado ao Conselho.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>O Artigo 163 cria as duas Comissões como órgãos do Conselho.</t>
+          <t>Conforme o **art. 163, parágrafo 1º**, são criados, como órgãos do Conselho: uma Comissão Jurídica e Técnica e uma Comissão de Planejamento Econômico.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pág 48</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1858,12 +1858,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>É recomendável que os membros das Comissões tenham investimentos em mineração para garantir que entendam o mercado.</t>
+          <t>É permitido aos membros das Comissões manterem interesses financeiros na Área, desde que declarados previamente.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>O Artigo 163, parágrafo 8º, proíbe interesses financeiros dos membros das Comissões.</t>
+          <t>O **art. 163, parágrafo 8º** estipula que os membros das Comissões não devem ter interesses financeiros em qualquer atividade relacionada.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1877,27 +1877,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pág 48</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Os membros das Comissões são eleitos pelo Conselho entre candidatos apresentados pelos Estados Partes.</t>
+          <t>Os membros das Comissões são eleitos pelo Conselho por um mandato de cinco anos, podendo ser reeleitos.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Os membros das Comissões são contratados diretamente pelo Secretário Geral através de concurso público internacional.</t>
+          <t>O mandato dos membros das Comissões é vitalício, garantindo independência absoluta.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>O Artigo 163, parágrafo 2º, estabelece a eleição pelo Conselho baseada em indicações dos Estados.</t>
+          <t>De acordo com o **art. 163, parágrafo 6º**, os membros das Comissões são eleitos por cinco anos.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1911,27 +1911,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág. 49</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A Comissão de Planejamento Econômico deve examinar as tendências da oferta, da procura e dos preços dos minerais da Área.</t>
+          <t>A Comissão de Planejamento Econômico deve incluir pelo menos dois membros de Estados em desenvolvimento exportadores dos minerais em questão.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>A Comissão de Planejamento Econômico deve focar exclusivamente em questões jurídicas, não podendo analisar tendências de mercado.</t>
+          <t>A Comissão de Planejamento Econômico deve ser composta exclusivamente por economistas de países desenvolvidos.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>O Artigo 164 atribui à Comissão a função de examinar tendências de mercado.</t>
+          <t>Segundo o **art. 164, parágrafo 1º**, a Comissão deve incluir pelo menos dois membros dos Estados em desenvolvimento cujas exportações (...) tenham consequências importantes.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1945,27 +1945,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág. 49</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A Comissão de Planejamento Econômico deve propor um sistema de compensação para Estados em desenvolvimento que sofram efeitos adversos.</t>
+          <t>A Comissão Jurídica e Técnica deve examinar os planos de trabalho formais escritos relativos às atividades na Área.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A compensação econômica é decidida unilateralmente pelos países desenvolvidos, sem participação da Comissão.</t>
+          <t>A Comissão Jurídica e Técnica não tem competência para examinar planos de trabalho, focando apenas em questões ambientais.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>O Artigo 164, parágrafo 2º alínea 'd', incumbe a Comissão de propor o sistema de compensação.</t>
+          <t>Conforme o **art. 165, parágrafo 2º, alínea 'b'**, a Comissão deve examinar os planos de trabalho formais escritos.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1979,27 +1979,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág. 49</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A Comissão deve incluir pelo menos dois membros de Estados em desenvolvimento cujas exportações de minerais sejam afetadas.</t>
+          <t>A Comissão Jurídica e Técnica deve preparar avaliações das consequências ecológicas das atividades na Área.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A composição da Comissão de Planejamento Econômico é livre, não havendo exigência de inclusão de membros de países em desenvolvimento.</t>
+          <t>Avaliações ecológicas são de responsabilidade exclusiva de ONGs ambientais, não da Comissão.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>O Artigo 164, parágrafo 1º, exige a inclusão de pelo menos dois membros de tais Estados.</t>
+          <t>De acordo com o **art. 165, parágrafo 2º, alínea 'd'**, a Comissão deve preparar avaliações das consequências ecológicas das atividades.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2013,27 +2013,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág. 50</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A Comissão Jurídica e Técnica deve examinar os planos de trabalho formais escritos e fazer recomendações ao Conselho.</t>
+          <t>A Comissão Jurídica e Técnica pode recomendar ao Conselho a emissão de ordens de emergência para prevenir danos graves ao meio marinho.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A Comissão Jurídica e Técnica tem poder para aprovar ou rejeitar planos de trabalho definitivamente, sem consultar o Conselho.</t>
+          <t>A Comissão Jurídica e Técnica não pode recomendar ordens de emergência, devendo aguardar a manifestação da Assembleia.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>O Artigo 165 estabelece que a Comissão faz recomendações, cabendo a decisão ao Conselho.</t>
+          <t>Segundo o **art. 165, parágrafo 2º, alínea 'k'**, a Comissão pode recomendar ao Conselho que emita ordens de emergência.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2047,27 +2047,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág. 50</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>O Secretário Geral será eleito pela Assembléia para um mandato de quatro anos, podendo ser reeleito.</t>
+          <t>O Secretário Geral será eleito pela Assembleia para um mandato de quatro anos, podendo ser reeleito.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>O Secretário Geral é um cargo vitalício, não sujeito a reeleição ou limites de mandato.</t>
+          <t>O mandato do Secretário Geral é de seis anos, vedada a reeleição.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>O Artigo 166 define o mandato de quatro anos e a possibilidade de reeleição.</t>
+          <t>Conforme o **art. 166, parágrafo 2º**, o Secretário Geral será eleito (...) para um mandato de quatro anos (...) podendo ser reeleito.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2081,27 +2081,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág. 50</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>A Comissão Jurídica e Técnica deve preparar avaliações das consequências ecológicas das atividades na Área.</t>
+          <t>O Secretário Geral é o mais alto funcionário administrativo da Autoridade.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A avaliação ambiental é de responsabilidade exclusiva das ONGs, não cabendo à Comissão Jurídica e Técnica realizá-la.</t>
+          <t>O Presidente do Conselho é o mais alto funcionário administrativo, sendo o Secretário Geral seu subordinado direto.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>O Artigo 165, parágrafo 2º alínea 'd', atribui essa função à Comissão.</t>
+          <t>O **art. 166, parágrafo 3º** define que o Secretário Geral será o mais alto funcionário administrativo da Autoridade.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2115,12 +2115,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág. 51</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2130,12 +2130,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>O Secretário Geral deve seguir as instruções do governo de seu país de origem para garantir os interesses nacionais.</t>
+          <t>O Secretário Geral deve seguir as instruções do governo do país onde a Autoridade está sediada.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>O Artigo 168 estabelece o caráter internacional e independente do Secretariado.</t>
+          <t>De acordo com o **art. 168, parágrafo 1º**, o Secretário Geral e o pessoal (...) não solicitarão nem receberão instruções de qualquer governo.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2149,27 +2149,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág. 51</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>O pessoal da Autoridade é nomeado pelo Secretário Geral, visando o mais alto grau de eficiência, competência e integridade.</t>
+          <t>A Empresa é o órgão da Autoridade que realizará diretamente as atividades na Área.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>O pessoal da Autoridade é indicado politicamente pelos Estados membros, independentemente de qualificação técnica.</t>
+          <t>A Empresa é uma entidade privada contratada pela Autoridade, não sendo um órgão da mesma.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>O Artigo 167 define os critérios de competência e a nomeação pelo Secretário Geral.</t>
+          <t>Segundo o **art. 170, parágrafo 1º**, a Empresa é o órgão da Autoridade que realizará diretamente as atividades na Área.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2183,27 +2183,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág. 51</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>O Secretário Geral e o pessoal não devem ter interesses financeiros em quaisquer atividades relacionadas com a exploração na Área.</t>
+          <t>A Empresa terá sua instalação principal na sede da Autoridade.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Funcionários da Autoridade podem possuir ações de empresas mineradoras na Área, desde que declarem seus bens.</t>
+          <t>A Empresa deve ter sua sede obrigatoriamente em um país em desenvolvimento, distinto da sede da Autoridade.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>O Artigo 168, parágrafo 2º, proíbe interesses financeiros do pessoal na exploração da Área.</t>
+          <t>Conforme o **art. 170, parágrafo 3º**, a Empresa terá a sua instalação principal na sede da Autoridade.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2217,27 +2217,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág. 52</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>A Empresa é o órgão da Autoridade que realizará diretamente atividades na Área, bem como o transporte e comercialização de minerais.</t>
+          <t>A Autoridade tem capacidade para contrair empréstimos, sendo esse poder exercido pelo Conselho.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A Empresa atua apenas como agência reguladora, sendo proibida de realizar atividades de mineração ou comercialização.</t>
+          <t>A Autoridade é proibida de contrair empréstimos para evitar endividamento internacional.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>O Artigo 170 define a Empresa como o braço operacional da Autoridade.</t>
+          <t>De acordo com o **art. 174, parágrafos 1º e 3º**, a Autoridade tem capacidade para contrair empréstimos e o Conselho exercerá esse poder.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2251,27 +2251,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág. 52</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Os recursos financeiros da Autoridade incluem contribuições dos membros, receitas da Área e empréstimos.</t>
+          <t>Os fundos da Autoridade destinam-se, em primeiro lugar, a cobrir as despesas administrativas.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A Autoridade é proibida de contrair empréstimos, devendo financiar-se exclusivamente pelas contribuições dos membros.</t>
+          <t>As receitas da Autoridade devem ser totalmente distribuídas aos Estados Partes, cabendo à ONU cobrir as despesas administrativas.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>O Artigo 171 lista empréstimos como uma das fontes de recursos.</t>
+          <t>Segundo o **art. 173, parágrafo 2º**, os fundos da Autoridade destinar-se-ão, em primeiro lugar, a cobrir as despesas administrativas.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2285,27 +2285,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág. 52</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>O Secretário Geral prepara o projeto de orçamento anual e o submete ao Conselho, que o recomenda à Assembléia.</t>
+          <t>Os registros e contas da Autoridade serão verificados anualmente por um auditor independente designado pela Assembleia.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>O orçamento anual é preparado e aprovado exclusivamente pela Empresa, sem interferência do Conselho ou da Assembléia.</t>
+          <t>A auditoria das contas da Autoridade é realizada internamente pelo próprio Secretariado, sem auditoria externa.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>O Artigo 172 descreve o processo orçamentário envolvendo Secretário, Conselho e Assembléia.</t>
+          <t>Conforme o **art. 175**, as contas (...) serão verificados todos os anos por um auditor independente.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2319,27 +2319,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág. 53</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>A Autoridade tem personalidade jurídica internacional e capacidade para contrair empréstimos.</t>
+          <t>A Autoridade goza de personalidade jurídica internacional e imunidade de jurisdição e execução.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A Autoridade não possui personalidade jurídica própria, sendo apenas um fórum de reunião dos Estados Partes.</t>
+          <t>A Autoridade é uma entidade de direito privado sujeita à jurisdição comum dos tribunais nacionais.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Os Artigos 174 e 176 conferem capacidade de empréstimo e personalidade jurídica.</t>
+          <t>Segundo os **arts. 176 e 178**, a Autoridade tem personalidade jurídica internacional e goza de imunidade de jurisdição.,</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2353,27 +2353,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág. 53</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Os bens e haveres da Autoridade gozam de imunidade de jurisdição e execução, salvo renúncia expressa.</t>
+          <t>Os arquivos da Autoridade são invioláveis, onde quer que se encontrem.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Os bens da Autoridade podem ser confiscados ou penhorados por qualquer tribunal nacional em caso de dívida.</t>
+          <t>A inviolabilidade dos arquivos da Autoridade restringe-se apenas à sua sede principal.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>O Artigo 178 garante imunidade de jurisdição e execução.</t>
+          <t>De acordo com o **art. 181, parágrafo 1º**, os arquivos da Autoridade são invioláveis, onde quer que se encontrem.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2387,27 +2387,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág. 53</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Os arquivos da Autoridade são invioláveis, onde quer que se encontrem.</t>
+          <t>Os bens e haveres da Autoridade estão isentos de qualquer tipo de restrições, regulamentação, controle e moratórias.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>As autoridades locais têm direito de inspecionar os arquivos da Autoridade sempre que houver suspeita de irregularidade.</t>
+          <t>Os bens da Autoridade podem ser congelados por decisão judicial de qualquer Estado Parte em caso de litígio comercial.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>O Artigo 181 garante a inviolabilidade dos arquivos.</t>
+          <t>Conforme o **art. 180**, os bens e haveres (...) estão isentos de qualquer tipo de restrições, regulamentação, controle e moratórias.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2421,27 +2421,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág. 54</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A Autoridade e seus bens ficam isentos de qualquer imposto direto e de direitos aduaneiros para uso oficial.</t>
+          <t>A Autoridade e seus bens ficarão isentos de qualquer imposto direto e direitos alfandegários para uso oficial.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A Autoridade deve pagar todos os impostos locais e taxas alfandegárias como qualquer empresa privada.</t>
+          <t>A Autoridade deve pagar todos os impostos locais e nacionais, não gozando de isenção tributária.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>O Artigo 183 estabelece a isenção de impostos diretos e direitos aduaneiros.</t>
+          <t>Segundo o **art. 183, parágrafo 1º**, a Autoridade (...) ficarão isentos de qualquer imposto direto.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2455,27 +2455,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág. 54</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Um Estado Parte em atraso no pagamento de contribuições pode ter seu direito de voto suspenso.</t>
+          <t>Um Estado Parte em atraso no pagamento de contribuições pode ter seu direito de voto suspenso se a dívida igualar o total de dois anos.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>O direito de voto de um Estado Parte é inalienável e não pode ser suspenso por motivos financeiros.</t>
+          <t>O atraso no pagamento de contribuições não afeta o direito de voto, gerando apenas cobrança de juros.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>O Artigo 184 prevê a suspensão do voto por inadimplência.</t>
+          <t>Conforme o **art. 184**, o Estado Parte (...) não poderá votar quando o montante das suas dívidas for igual ou superior ao total (...) para os dois anos anteriores.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2489,27 +2489,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág. 54</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A suspensão de direitos de membro por violação grave exige decisão da Assembléia após determinação da Câmara de Controvérsias.</t>
+          <t>A suspensão de direitos de membro por violação grave depende de determinação prévia da Câmara de Controvérsias dos Fundos Marinhos.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>A Assembléia pode suspender um membro sumariamente sem necessidade de processo jurídico prévio na Câmara de Controvérsias.</t>
+          <t>A Assembleia pode suspender um membro por violação grave imediatamente, sem necessidade de decisão judicial prévia.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>O Artigo 185 exige determinação prévia da Câmara de Controvérsias.</t>
+          <t>De acordo com o **art. 185, parágrafo 2º**, nenhuma decisão pode ser tomada (...) até que a Câmara de Controvérsias (...) tenha determinado que um Estado Parte violou.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2523,27 +2523,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág. 55</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>A Câmara de Controvérsias dos Fundos Marinhos tem competência para solucionar controvérsias entre Estados Partes relativas à Parte XI.</t>
+          <t>A Câmara de Controvérsias dos Fundos Marinhos tem competência para controvérsias entre Estados Partes relativas à interpretação da Parte XI.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Controvérsias sobre a Parte XI devem ser resolvidas exclusivamente em tribunais nacionais, sem recurso à Câmara internacional.</t>
+          <t>A Câmara de Controvérsias não julga disputas entre Estados, limitando-se a casos administrativos internos da Autoridade.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>O Artigo 187 define a competência da Câmara para controvérsias entre Estados Partes.</t>
+          <t>Segundo o **art. 187, alínea 'a'**, a Câmara tem competência para controvérsias entre Estados Partes relativos à interpretação ou aplicação da presente Parte.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2557,27 +2557,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág. 55</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A Câmara tem competência para controvérsias contratuais envolvendo a Autoridade e empresas estatais ou privadas.</t>
+          <t>Controvérsias sobre interpretação de contratos podem ser submetidas a arbitragem comercial obrigatória.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>A Câmara só julga disputas entre Estados, não aceitando casos envolvendo empresas ou pessoas jurídicas.</t>
+          <t>Controvérsias contratuais devem ser resolvidas exclusivamente pela via diplomática, sendo vedada a arbitragem.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>O Artigo 187, alínea 'c', inclui controvérsias com empresas e pessoas jurídicas.</t>
+          <t>Conforme o **art. 188, parágrafo 2º, alínea 'a'**, controvérsias relativas à interpretação ou execução de um contrato (...) serão submetidas (...) a uma arbitragem comercial obrigatória.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2591,27 +2591,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág. 55</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Controvérsias sobre a interpretação de um contrato podem ser submetidas a arbitragem comercial obrigatória.</t>
+          <t>Um Estado patrocinador tem o direito de participar nos procedimentos judiciais se uma pessoa física ou jurídica patrocinada for parte.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Todas as disputas contratuais devem ser julgadas politicamente pela Assembléia, sendo vedada a arbitragem comercial.</t>
+          <t>O Estado patrocinador é proibido de intervir em processos envolvendo suas empresas patrocinadas para garantir a imparcialidade.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>O Artigo 188, parágrafo 2º, permite a arbitragem comercial para interpretação de contratos.</t>
+          <t>De acordo com o **art. 190, parágrafo 1º**, o Estado patrocinador (...) terá o direito de participar nos procedimentos.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2625,12 +2625,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág. 56</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2640,12 +2640,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A Câmara de Controvérsias pode anular qualquer decisão política ou discricionária da Autoridade se discordar de sua conveniência.</t>
+          <t>A Câmara de Controvérsias pode rever e anular qualquer decisão discricionária da Autoridade, substituindo-a por sua própria decisão.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>O Artigo 189 limita a competência da Câmara em relação a poderes discricionários.</t>
+          <t>Segundo o **art. 189**, a Câmara de Controvérsia (...) não terá competência para se pronunciar sobre o exercício pela Autoridade dos poderes discricionários.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2659,27 +2659,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág. 56</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Se uma pessoa jurídica for parte em uma controvérsia, o Estado patrocinador terá o direito de participar nos procedimentos.</t>
+          <t>A Câmara de Controvérsias não pode declarar a invalidade das normas e regulamentos da Autoridade.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>O Estado patrocinador é proibido de participar em processos envolvendo empresas que ele patrocina para evitar conflito de interesses.</t>
+          <t>A principal função da Câmara é revisar e anular as normas da Autoridade que julgar inadequadas.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>O Artigo 190 garante o direito de intervenção do Estado patrocinador.</t>
+          <t>Conforme o **art. 189**, a Câmara (...) não declarará a invalidade de tais normas, regulamentos e procedimentos.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2693,27 +2693,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág. 56</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>A Câmara de Controvérsias emitirá pareceres consultivos a pedido da Assembléia ou do Conselho sobre questões jurídicas.</t>
+          <t>A Câmara de Controvérsias emitirá pareceres consultivos a pedido da Assembleia ou do Conselho com caráter de urgência.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>A Câmara de Controvérsias é um órgão estritamente contencioso e não pode emitir pareceres consultivos.</t>
+          <t>A Câmara de Controvérsias está proibida de emitir pareceres consultivos, limitando-se a julgar casos contenciosos.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>O Artigo 191 confere à Câmara o poder de emitir pareceres consultivos.</t>
+          <t>De acordo com o **art. 191**, a Câmara (...) emitirá, a pedido da Assembleia ou do Conselho, pareceres consultivos (...) com caráter de urgência.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
